--- a/solutions/dell/cloud/vxrail-hci/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/cloud/vxrail-hci/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1415,7 +1415,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1505,7 +1505,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1550,7 +1550,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1595,7 +1595,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1730,7 +1730,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1863,171 +1863,36 @@
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>VxRail Deployment Services</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>On-site installation network configuration and cluster build</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Nodes</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G16" s="50" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50" t="n">
-        <v>20000</v>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>1 week Dell ProDeploy engagement</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>VMware Training</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>vSphere and vSAN administration 5-day course</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G17" s="46" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Hands-on training for IT team</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Migration Services</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>VM migration planning and execution from legacy infrastructure</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G18" s="50" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50" t="n">
-        <v>15000</v>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Professional services for workload migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="51" t="inlineStr">
+      <c r="A16" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B19" s="52" t="n"/>
-      <c r="C19" s="52" t="n"/>
-      <c r="D19" s="52" t="n"/>
-      <c r="E19" s="52" t="n"/>
-      <c r="F19" s="52" t="n"/>
-      <c r="G19" s="53">
-        <f>SUM(G3:G18)</f>
-        <v/>
-      </c>
-      <c r="H19" s="53">
-        <f>SUM(H3:H18)</f>
-        <v/>
-      </c>
-      <c r="I19" s="53">
-        <f>SUM(I3:I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="53">
-        <f>SUM(J3:J18)</f>
-        <v/>
-      </c>
-      <c r="K19" s="52" t="n"/>
+      <c r="B16" s="52" t="n"/>
+      <c r="C16" s="52" t="n"/>
+      <c r="D16" s="52" t="n"/>
+      <c r="E16" s="52" t="n"/>
+      <c r="F16" s="52" t="n"/>
+      <c r="G16" s="53">
+        <f>SUM(G3:G15)</f>
+        <v/>
+      </c>
+      <c r="H16" s="53">
+        <f>SUM(H3:H15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="53">
+        <f>SUM(I3:I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="53">
+        <f>SUM(J3:J15)</f>
+        <v/>
+      </c>
+      <c r="K16" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K19"/>
+  <autoFilter ref="A2:K16"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2160,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2256,7 +2121,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2287,7 +2152,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2316,40 +2181,40 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Support &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
+      <c r="A6" s="51" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Legacy Cost Avoidance</t>
         </is>
       </c>
       <c r="B7" s="46">
@@ -2378,100 +2243,38 @@
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="51" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B8" s="53">
-        <f>SUM(B3:B7)</f>
-        <v/>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(C3:C7)</f>
-        <v/>
-      </c>
-      <c r="D8" s="53">
-        <f>SUM(D3:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="53">
-        <f>SUM(E3:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="53">
-        <f>SUM(F3:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="53">
-        <f>SUM(G3:G7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="43" t="inlineStr">
-        <is>
-          <t>Legacy Cost Avoidance</t>
-        </is>
-      </c>
-      <c r="B9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C9" s="46">
-        <f>SUMIF(Credits!$A:$A,A9,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D9" s="46">
-        <f>B9+C9</f>
-        <v/>
-      </c>
-      <c r="E9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G9" s="46">
-        <f>D9+E9+F9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="47" t="inlineStr">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Net Investment After Savings</t>
         </is>
       </c>
-      <c r="B10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C10" s="50">
-        <f>SUMIF(Credits!$A:$A,A10,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D10" s="50">
-        <f>B10+C10</f>
-        <v/>
-      </c>
-      <c r="E10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G10" s="50">
-        <f>D10+E10+F10</f>
+      <c r="B8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$G:$G)</f>
+        <v/>
+      </c>
+      <c r="C8" s="50">
+        <f>SUMIF(Credits!$A:$A,A8,Credits!$C:$C)</f>
+        <v/>
+      </c>
+      <c r="D8" s="50">
+        <f>B8+C8</f>
+        <v/>
+      </c>
+      <c r="E8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$H:$H)</f>
+        <v/>
+      </c>
+      <c r="F8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$I:$I)</f>
+        <v/>
+      </c>
+      <c r="G8" s="50">
+        <f>D8+E8+F8</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G10"/>
+  <autoFilter ref="A2:G8"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/dell/cloud/vxrail-hci/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/cloud/vxrail-hci/presales/infrastructure-costs.xlsx
@@ -2025,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2090,7 +2090,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2121,7 +2121,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2183,96 +2183,78 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Operational Savings</t>
         </is>
       </c>
       <c r="B6" s="53">
-        <f>SUM(B3:B5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
       <c r="C6" s="53">
-        <f>SUM(C3:C5)</f>
+        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
         <v/>
       </c>
       <c r="D6" s="53">
-        <f>SUM(D3:D5)</f>
+        <f>B6+C6</f>
         <v/>
       </c>
       <c r="E6" s="53">
-        <f>SUM(E3:E5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
       <c r="F6" s="53">
-        <f>SUM(F3:F5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
       <c r="G6" s="53">
-        <f>SUM(G3:G5)</f>
+        <f>D6+E6+F6</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Legacy Cost Avoidance</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
+        <f>SUM(B3:B6)</f>
         <v/>
       </c>
       <c r="C7" s="46">
-        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
+        <f>SUM(C3:C6)</f>
         <v/>
       </c>
       <c r="D7" s="46">
-        <f>B7+C7</f>
+        <f>SUM(D3:D6)</f>
         <v/>
       </c>
       <c r="E7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
+        <f>SUM(E3:E6)</f>
         <v/>
       </c>
       <c r="F7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
+        <f>SUM(F3:F6)</f>
         <v/>
       </c>
       <c r="G7" s="46">
-        <f>D7+E7+F7</f>
+        <f>SUM(G3:G6)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="47" t="inlineStr">
-        <is>
-          <t>Net Investment After Savings</t>
-        </is>
-      </c>
-      <c r="B8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C8" s="50">
-        <f>SUMIF(Credits!$A:$A,A8,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D8" s="50">
-        <f>B8+C8</f>
-        <v/>
-      </c>
-      <c r="E8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G8" s="50">
-        <f>D8+E8+F8</f>
-        <v/>
-      </c>
-    </row>
+      <c r="A8" s="47" t="n"/>
+      <c r="B8" s="50" t="n"/>
+      <c r="C8" s="50" t="n"/>
+      <c r="D8" s="50" t="n"/>
+      <c r="E8" s="50" t="n"/>
+      <c r="F8" s="50" t="n"/>
+      <c r="G8" s="50" t="n"/>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
   </sheetData>
   <autoFilter ref="A2:G8"/>
   <mergeCells count="1">
